--- a/project_dataset/Lexique - Data Analyst.xlsx
+++ b/project_dataset/Lexique - Data Analyst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ironhack\Coursework\week_3\project_prices\project-ironhack-payments-en\project_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A47DAD4-E1C0-44A4-B7DF-21FC3A2AC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB57B2-144C-4753-906D-C33C8BCD820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="context - fees" sheetId="2" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1377,7 +1377,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1735,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B98DC-AA23-8848-AD79-7CDAFD86BA20}">
   <dimension ref="A1:B16376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1754,10 +1753,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -81816,8 +81815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D6A73B-D1D2-0341-9B4F-0C7C22352858}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -81890,7 +81889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -81930,7 +81929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
